--- a/Instantopen/src/main/java/com/Resources/TestData.xlsx
+++ b/Instantopen/src/main/java/com/Resources/TestData.xlsx
@@ -1350,7 +1350,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1361,7 +1361,7 @@
   <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3236,13 +3236,14 @@
   <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3364,7 +3365,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>111</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>169</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="AF2" s="6" t="s">
         <v>171</v>
@@ -3465,7 +3466,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>175</v>
       </c>
@@ -3494,7 +3495,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>181</v>
       </c>
@@ -3577,7 +3578,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>201</v>
       </c>
@@ -3609,7 +3610,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>205</v>
       </c>
@@ -3671,7 +3672,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>210</v>
       </c>
@@ -3721,7 +3722,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>223</v>
       </c>
@@ -3738,7 +3739,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>235</v>
       </c>
@@ -3797,7 +3798,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>236</v>
       </c>
@@ -3823,7 +3824,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>237</v>
       </c>
@@ -3852,7 +3853,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>244</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>252</v>
       </c>
@@ -3937,7 +3938,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>259</v>
       </c>
@@ -4005,7 +4006,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>266</v>
       </c>
@@ -4046,7 +4047,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>276</v>
       </c>
@@ -4090,7 +4091,7 @@
       <c r="AG16" s="9"/>
       <c r="AH16" s="9"/>
     </row>
-    <row r="17" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>282</v>
       </c>
@@ -4137,7 +4138,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>298</v>
       </c>
@@ -4193,7 +4194,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>299</v>
       </c>
@@ -4264,7 +4265,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>307</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>312</v>
       </c>

--- a/Instantopen/src/main/java/com/Resources/TestData.xlsx
+++ b/Instantopen/src/main/java/com/Resources/TestData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECU_v4\TDECUProjects\InstantOpen\src\main\java\com\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5B83F7-0757-452E-9901-F98B8C2573CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="371">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -970,12 +976,179 @@
   </si>
   <si>
     <t>Please Select an Item from the drop down list.</t>
+  </si>
+  <si>
+    <t>C23761_NonMemberUserToKnowAboutPersonalInfo</t>
+  </si>
+  <si>
+    <t>C23762_NonMemberUserReceivesPopupForInvalidCharecters</t>
+  </si>
+  <si>
+    <t>C23763_AddressShouldVerifiedForNonMemberUser</t>
+  </si>
+  <si>
+    <t>C23764_NonMemberUserShouldbeAbleToEnterStreetAddressAndZip</t>
+  </si>
+  <si>
+    <t>C23765_NonMemberUserCanSeeErrorMessageForInvalidDataEntry</t>
+  </si>
+  <si>
+    <t>C23794_NonMemberUserCanEnterPersonalIdentificationInfo</t>
+  </si>
+  <si>
+    <t>C23795_ApplicantInfoShouldDisplayedOnceReturnBackToThePage</t>
+  </si>
+  <si>
+    <t>C23796_NonMembersSSNAutometicallyFormatted</t>
+  </si>
+  <si>
+    <t>C23797_ApplicationProvideAlertForInvalidSSNEntries</t>
+  </si>
+  <si>
+    <t>C23799_ApplicationProvideAlertForInvalidDOBEntries</t>
+  </si>
+  <si>
+    <t>C23801_ApplicationProvideAlertForInvalidIssueDateEntries</t>
+  </si>
+  <si>
+    <t>C23803_ApplicationProvideAlertForInvalidExpirationDateEntries</t>
+  </si>
+  <si>
+    <t>C23824_NonMemberUserCanEnterContactInformation</t>
+  </si>
+  <si>
+    <t>C23825_NonMemberUserGetAlertForInvalidPhoneNumberEntry</t>
+  </si>
+  <si>
+    <t>C23826_NonMemberUserShouldAbletoSelectATypeOfEachPhoneNumber</t>
+  </si>
+  <si>
+    <t>C23827_NonMemberUserShouldGetAlertForInvalidEmailAddressEntry</t>
+  </si>
+  <si>
+    <t>C24258_NonMemberUserShouldBeWarnedIfTheInformationNeedsToBeSaved</t>
+  </si>
+  <si>
+    <t>C23962_NonMemberUserShouldEnterAllMandatoryDetailsInContactInformationSection</t>
+  </si>
+  <si>
+    <t>C23960_NonMemberUserNeedToEnterAllMandatoryFieldDetails</t>
+  </si>
+  <si>
+    <t>C23959_NonMemberUserReceiveErrorForNotenteringValidDataInTheForm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    By selecting Continue below you agree to not use any TDECU accounts, services or products for unlawful or illegal gambling practices in accordance with the Unlawful Internet Gambling Enforcement Act (UIGEA).
+    </t>
+  </si>
+  <si>
+    <t>C23843_NonMemberCreditCardtLimit</t>
+  </si>
+  <si>
+    <t>C23889_NonMemberUserNeedToKnowMaxAndMinCreditLimit</t>
+  </si>
+  <si>
+    <t>C23890_NonMemberUserMustEnterTypeAndLimit</t>
+  </si>
+  <si>
+    <t>C23838_NonMemberChangeSelectedCreditCardOption</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>C24259_NonMemberUserShouldAbleToReturnBackToThePreviousPage</t>
+  </si>
+  <si>
+    <t>C23935_NonMemberUserShouldAbleToEnterLoanInfo</t>
+  </si>
+  <si>
+    <t>C23938_NonMemberUserMustEnterValuesIfAppliedForLoanOrCreditCard</t>
+  </si>
+  <si>
+    <t>C23857_NonMemberUserWouldLikeToViewSelectedAccountInfo</t>
+  </si>
+  <si>
+    <t>AccountSelection</t>
+  </si>
+  <si>
+    <t>6 Month Share Certificate (Estimated Maturity Date: 6/13/2020)::High Yield Checking::Debit Card::Mobile Remote Deposit Capture::Online/Mobile Banking::E-Documents::MAXINE – Self-Service Telephone Banking</t>
+  </si>
+  <si>
+    <t>C23858_NonMemberUserWouldAddAccountBeforeConfirming</t>
+  </si>
+  <si>
+    <t>C23859_NonMemberUserWouldLikeToRemovePreSelectedOption</t>
+  </si>
+  <si>
+    <t>C23860_NonMemberUserWouldLikeToModifyAccountInfoBeforeConfirming</t>
+  </si>
+  <si>
+    <t>TestCompany</t>
+  </si>
+  <si>
+    <t>Test Automation Engineer</t>
+  </si>
+  <si>
+    <t>8008391146</t>
+  </si>
+  <si>
+    <t>C24228_NonMemberUserCanGetMobileDepositLinkIfOptionSelected</t>
+  </si>
+  <si>
+    <t>C23862_NonMemberUserCanVerifyTheIdentity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test@emailaddress.com</t>
+  </si>
+  <si>
+    <t>B-Company</t>
+  </si>
+  <si>
+    <t>7008391159</t>
+  </si>
+  <si>
+    <t>8008391256</t>
+  </si>
+  <si>
+    <t>9875675</t>
+  </si>
+  <si>
+    <t>C24271_NonMemberUserWouldLikeToSeeNoneOfTheAboveAsanAnswer</t>
+  </si>
+  <si>
+    <t>9875687</t>
+  </si>
+  <si>
+    <t>C24263_NonMemberUserCanOnlySeeEDocumentLinkIfSelected</t>
+  </si>
+  <si>
+    <t>9875677</t>
+  </si>
+  <si>
+    <t>C24264_NonMemberUserShouldNotSeeEDocumentLinkIfNotSelected</t>
+  </si>
+  <si>
+    <t>C23939_NonMemberUserShouldFillEntireApplicantFormMustBeCompletedBeforeProcced</t>
+  </si>
+  <si>
+    <t>C23941_NonMemberUserShouldFillEntireApplicantFormMustBeCompletedBeforeProccedWithAddBeneFiciaries</t>
+  </si>
+  <si>
+    <t>C23942_NonMemberUserCanAddOneJointOwnerToTheApplicationForm</t>
+  </si>
+  <si>
+    <t>9875668</t>
+  </si>
+  <si>
+    <t>9875676</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1028,7 +1201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1043,6 +1216,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1104,7 +1280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1156,7 +1332,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1350,18 +1526,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,212 +2270,641 @@
       </c>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
+    <row r="48" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
+    <row r="49" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
+    <row r="50" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
+    <row r="51" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="4"/>
+    <row r="52" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
+    <row r="53" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="4"/>
+    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
+    <row r="55" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="4"/>
+    <row r="56" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
+    <row r="57" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="4"/>
+    <row r="58" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
+    <row r="59" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="4"/>
+    <row r="60" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="4"/>
+    <row r="61" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="2"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="4"/>
+    <row r="62" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="4"/>
+    <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="4"/>
+    <row r="64" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="4"/>
-      <c r="E65" s="2"/>
+    <row r="65" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="4"/>
+    <row r="66" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="4"/>
+    <row r="67" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="2"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="4"/>
+    <row r="68" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="4"/>
+    <row r="69" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="4"/>
-      <c r="E70" s="2"/>
+    <row r="70" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="4"/>
-      <c r="E71" s="2"/>
+    <row r="71" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="4"/>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>342</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="4"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="4"/>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="4"/>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>345</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="4"/>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>348</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E76" s="2"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="4"/>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E77" s="2"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="4"/>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>350</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E78" s="2"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="4"/>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="4"/>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>355</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="4"/>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="4"/>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="4"/>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="4"/>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>366</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E84" s="2"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="4"/>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>367</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E85" s="2"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="4"/>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>368</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E86" s="2"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
       <c r="E87" s="2"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
       <c r="E88" s="2"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
       <c r="E89" s="2"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B93" s="4"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B94" s="4"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B95" s="4"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B96" s="4"/>
       <c r="F96" s="1"/>
     </row>
@@ -2309,69 +2914,108 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11"/>
-    <hyperlink ref="B14" r:id="rId12"/>
-    <hyperlink ref="B15" r:id="rId13"/>
-    <hyperlink ref="B16" r:id="rId14"/>
-    <hyperlink ref="B17" r:id="rId15"/>
-    <hyperlink ref="B18" r:id="rId16"/>
-    <hyperlink ref="B19" r:id="rId17"/>
-    <hyperlink ref="B20" r:id="rId18"/>
-    <hyperlink ref="B21" r:id="rId19"/>
-    <hyperlink ref="B22" r:id="rId20"/>
-    <hyperlink ref="B23" r:id="rId21"/>
-    <hyperlink ref="B24" r:id="rId22"/>
-    <hyperlink ref="B25" r:id="rId23"/>
-    <hyperlink ref="B26" r:id="rId24"/>
-    <hyperlink ref="B27" r:id="rId25"/>
-    <hyperlink ref="B28" r:id="rId26"/>
-    <hyperlink ref="B29" r:id="rId27"/>
-    <hyperlink ref="B30" r:id="rId28"/>
-    <hyperlink ref="B31" r:id="rId29"/>
-    <hyperlink ref="B32" r:id="rId30"/>
-    <hyperlink ref="B33" r:id="rId31"/>
-    <hyperlink ref="B34" r:id="rId32"/>
-    <hyperlink ref="B35" r:id="rId33"/>
-    <hyperlink ref="B36" r:id="rId34"/>
-    <hyperlink ref="B37" r:id="rId35"/>
-    <hyperlink ref="B38" r:id="rId36"/>
-    <hyperlink ref="B39" r:id="rId37"/>
-    <hyperlink ref="B40" r:id="rId38"/>
-    <hyperlink ref="B41" r:id="rId39"/>
-    <hyperlink ref="B42" r:id="rId40"/>
-    <hyperlink ref="B43" r:id="rId41"/>
-    <hyperlink ref="B44" r:id="rId42"/>
-    <hyperlink ref="B45" r:id="rId43"/>
-    <hyperlink ref="B46" r:id="rId44"/>
-    <hyperlink ref="B47" r:id="rId45"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B48" r:id="rId46" xr:uid="{2C6782D2-E315-48D4-B754-2228BA2B308E}"/>
+    <hyperlink ref="B49" r:id="rId47" xr:uid="{2038515E-2630-43E9-9273-7EED0BBF7995}"/>
+    <hyperlink ref="B50" r:id="rId48" xr:uid="{6BC67AE2-5B9C-475B-873C-3DE821FC3592}"/>
+    <hyperlink ref="B51" r:id="rId49" xr:uid="{2502A74E-9EA6-4229-9BA7-42F046F2356B}"/>
+    <hyperlink ref="B52" r:id="rId50" xr:uid="{85D83142-425A-4BBD-A48A-4264F864F9B6}"/>
+    <hyperlink ref="B53" r:id="rId51" xr:uid="{FEB5A26E-13D3-438F-8BD6-C63C81021A29}"/>
+    <hyperlink ref="B54" r:id="rId52" xr:uid="{2A672BE0-6FFC-4748-820E-6E82715BB76C}"/>
+    <hyperlink ref="B55" r:id="rId53" xr:uid="{1B9391F6-C91C-4A88-B536-AEB7B59017A8}"/>
+    <hyperlink ref="B56" r:id="rId54" xr:uid="{6C227A5B-6C72-4F0C-B346-FD0FB92D74DE}"/>
+    <hyperlink ref="B57" r:id="rId55" xr:uid="{AFFFEEBB-7A75-44A4-962C-72A080A75462}"/>
+    <hyperlink ref="B58" r:id="rId56" xr:uid="{D49FF145-CC56-4FFF-A554-BB4857C7432A}"/>
+    <hyperlink ref="B59" r:id="rId57" xr:uid="{ECA53405-D8E9-4166-B9C3-79BA8198623B}"/>
+    <hyperlink ref="B60" r:id="rId58" xr:uid="{A351FA5D-82F1-48EA-A236-0B6FF2EB72BB}"/>
+    <hyperlink ref="B61" r:id="rId59" xr:uid="{ABCFB80B-B2F5-4644-8337-D66215AA7AAF}"/>
+    <hyperlink ref="B62" r:id="rId60" xr:uid="{AEAE3612-B26F-4C1E-8113-F25ED9D51FF6}"/>
+    <hyperlink ref="B63" r:id="rId61" xr:uid="{7157AF5D-5CE8-4C50-815C-C6F6D841964A}"/>
+    <hyperlink ref="B64" r:id="rId62" xr:uid="{EA9D85A0-D97F-4AA1-A7E4-836D0F2621B7}"/>
+    <hyperlink ref="B65" r:id="rId63" xr:uid="{CF8D253A-7F8B-4B61-B04D-380EB3B59231}"/>
+    <hyperlink ref="B66" r:id="rId64" xr:uid="{4B727B1E-5279-4345-B01C-4F737F3BF4D7}"/>
+    <hyperlink ref="B67" r:id="rId65" xr:uid="{D81FD3C9-15F3-4198-A96E-140F369AADA2}"/>
+    <hyperlink ref="B68" r:id="rId66" xr:uid="{92ED9EEC-F5C1-47C1-B051-449C9165FF7D}"/>
+    <hyperlink ref="B69" r:id="rId67" xr:uid="{102BD061-7CAB-426F-80A2-AEECCD517C93}"/>
+    <hyperlink ref="B70" r:id="rId68" xr:uid="{596CEF63-52F0-46E8-BAC7-71A11B2EA888}"/>
+    <hyperlink ref="B71" r:id="rId69" xr:uid="{BE37E8AA-F0B3-49C9-84AF-5673787A81F8}"/>
+    <hyperlink ref="B72" r:id="rId70" xr:uid="{754F1E95-0C2E-4196-BC79-4BD050B2CA94}"/>
+    <hyperlink ref="B73" r:id="rId71" xr:uid="{507F6CA1-E8EA-4FEF-A5D8-BEB4DD252FFF}"/>
+    <hyperlink ref="B74" r:id="rId72" xr:uid="{4E207CDC-81C8-4B10-9A69-8CF5118EE0C0}"/>
+    <hyperlink ref="B75" r:id="rId73" xr:uid="{9C24E18F-3DCE-4084-AE08-BC613DF917E4}"/>
+    <hyperlink ref="B76" r:id="rId74" xr:uid="{746A6E87-38A4-4ADB-9E01-7F847D47986E}"/>
+    <hyperlink ref="B77" r:id="rId75" xr:uid="{494C7915-33E8-48F2-AD37-DAEE4196EF34}"/>
+    <hyperlink ref="B78" r:id="rId76" xr:uid="{693DAA6D-4D01-425F-A177-14FC0D044266}"/>
+    <hyperlink ref="B79" r:id="rId77" xr:uid="{23C01B26-6919-4A21-8998-910403C2B9A7}"/>
+    <hyperlink ref="B80" r:id="rId78" xr:uid="{A1B321FB-A764-4F44-994A-27B1DCEB1823}"/>
+    <hyperlink ref="B81" r:id="rId79" xr:uid="{91A1449C-A6E6-4898-83FD-D46FD7803DF6}"/>
+    <hyperlink ref="B82" r:id="rId80" xr:uid="{F9FC268B-5594-4802-8F1E-61C01EBE9077}"/>
+    <hyperlink ref="B83" r:id="rId81" xr:uid="{1D9B8076-AECC-44DD-824F-99C1E52C83D3}"/>
+    <hyperlink ref="B84" r:id="rId82" xr:uid="{7CD31FAC-166B-4C80-B840-5B5DFDF33964}"/>
+    <hyperlink ref="B85" r:id="rId83" xr:uid="{583BD021-50FC-45E2-8E9E-4B14C4C2A0E1}"/>
+    <hyperlink ref="B86" r:id="rId84" xr:uid="{47C965E7-2448-4F2C-87D3-9A571567D6AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId46"/>
+  <pageSetup orientation="portrait" r:id="rId85"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="103" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
@@ -2385,6 +3029,7 @@
     <col min="15" max="15" width="17.28515625" customWidth="1"/>
     <col min="17" max="17" width="12.42578125" customWidth="1"/>
     <col min="19" max="19" width="23.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="54.140625" customWidth="1"/>
@@ -2392,9 +3037,10 @@
     <col min="27" max="27" width="64.85546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="193.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2482,8 +3128,11 @@
       <c r="AC1" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD1" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2540,7 +3189,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -2557,7 +3206,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>48</v>
       </c>
@@ -2574,7 +3223,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
@@ -2597,7 +3246,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>54</v>
       </c>
@@ -2614,7 +3263,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -2634,7 +3283,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>86</v>
       </c>
@@ -2654,7 +3303,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -2662,7 +3311,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -2682,7 +3331,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -2702,7 +3351,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -2721,7 +3370,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -2736,7 +3385,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>92</v>
       </c>
@@ -2750,7 +3399,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -2764,7 +3413,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -3122,30 +3771,1796 @@
       <c r="AC25" s="8"/>
       <c r="AD25" s="6"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="X26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA26" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z27" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="X28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z28" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="X29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z29" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="X30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z30" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="X31" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y31" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z31" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y32" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z32" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="X33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z33" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z34" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y35" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z35" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y36" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z36" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X37" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z37" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X38" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y38" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z38" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA38" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X39" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y39" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z39" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X40" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y40" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z40" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S41" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T41" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X41" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y41" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z41" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T42" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X42" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y42" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z42" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T43" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X43" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y43" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z43" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S44" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X44" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y44" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z44" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T45" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X45" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y45" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z45" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="V46" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="X46" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y46" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z46" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="X47" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y47" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z47" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="X48" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y48" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z48" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="X49" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y49" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z49" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="X50" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y50" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z50" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA50" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>343</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S51" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y51" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z51" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>344</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R52" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S52" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T52" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y52" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z52" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S53" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T53" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y53" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z53" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S54" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T54" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y54" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z54" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
+      <c r="AD54" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>349</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S55" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T55" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y55" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z55" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="R56" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S56" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T56" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y56" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z56" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>354</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="R57" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S57" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T57" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y57" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z57" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA57" s="6"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>355</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R58" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S58" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T58" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y58" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z58" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>361</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R59" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S59" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T59" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y59" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z59" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>363</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R60" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S60" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T60" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X60" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y60" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z60" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>365</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R61" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S61" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T61" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y61" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z61" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="X62" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y62" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z62" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>367</v>
+      </c>
+      <c r="X63" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y63" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z63" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O64" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P64" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R64" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S64" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T64" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y64" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z64" s="7" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3154,7 +5569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3232,10 +5647,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Instantopen/src/main/java/com/Resources/TestData.xlsx
+++ b/Instantopen/src/main/java/com/Resources/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrown\TDECUWorkspace\TDECUProjects\InstantOpen\src\main\java\com\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECU_v4\TDECUProjects\InstantOpen\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE7C985-DC43-4A87-88AE-FFF049902205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="444">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1332,12 +1333,42 @@
   </si>
   <si>
     <t>45688741</t>
+  </si>
+  <si>
+    <t>C23943_NonMemberUserCanAddMultipleJointOwnerToTheApplicationForm</t>
+  </si>
+  <si>
+    <t>9875568</t>
+  </si>
+  <si>
+    <t>9575676</t>
+  </si>
+  <si>
+    <t>9875758</t>
+  </si>
+  <si>
+    <t>C23944_NonMemberUserCanAddOneBeneficiaryToTheApplicationForm</t>
+  </si>
+  <si>
+    <t>9675668</t>
+  </si>
+  <si>
+    <t>9675677</t>
+  </si>
+  <si>
+    <t>9578676</t>
+  </si>
+  <si>
+    <t>C23945_NonMemberUserCanAddMultipleBeneficiariesToTheApplicationForm</t>
+  </si>
+  <si>
+    <t>9675758</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1722,11 +1753,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91:D91"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93:D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3054,9 +3085,9 @@
       <c r="E86" s="2"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>384</v>
+    <row r="87" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>434</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>8</v>
@@ -3072,7 +3103,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>8</v>
@@ -3088,7 +3119,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>8</v>
@@ -3104,7 +3135,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>8</v>
@@ -3115,33 +3146,67 @@
       <c r="D90" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="E90" s="2"/>
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="4"/>
+      <c r="B92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="4"/>
+      <c r="A93" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="4"/>
+      <c r="A94" t="s">
+        <v>442</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3156,110 +3221,117 @@
       <c r="B97" s="4"/>
       <c r="F97" s="1"/>
     </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="F98" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11"/>
-    <hyperlink ref="B14" r:id="rId12"/>
-    <hyperlink ref="B15" r:id="rId13"/>
-    <hyperlink ref="B16" r:id="rId14"/>
-    <hyperlink ref="B17" r:id="rId15"/>
-    <hyperlink ref="B18" r:id="rId16"/>
-    <hyperlink ref="B19" r:id="rId17"/>
-    <hyperlink ref="B20" r:id="rId18"/>
-    <hyperlink ref="B21" r:id="rId19"/>
-    <hyperlink ref="B22" r:id="rId20"/>
-    <hyperlink ref="B23" r:id="rId21"/>
-    <hyperlink ref="B24" r:id="rId22"/>
-    <hyperlink ref="B25" r:id="rId23"/>
-    <hyperlink ref="B26" r:id="rId24"/>
-    <hyperlink ref="B27" r:id="rId25"/>
-    <hyperlink ref="B28" r:id="rId26"/>
-    <hyperlink ref="B29" r:id="rId27"/>
-    <hyperlink ref="B30" r:id="rId28"/>
-    <hyperlink ref="B31" r:id="rId29"/>
-    <hyperlink ref="B32" r:id="rId30"/>
-    <hyperlink ref="B33" r:id="rId31"/>
-    <hyperlink ref="B34" r:id="rId32"/>
-    <hyperlink ref="B35" r:id="rId33"/>
-    <hyperlink ref="B36" r:id="rId34"/>
-    <hyperlink ref="B37" r:id="rId35"/>
-    <hyperlink ref="B38" r:id="rId36"/>
-    <hyperlink ref="B39" r:id="rId37"/>
-    <hyperlink ref="B40" r:id="rId38"/>
-    <hyperlink ref="B41" r:id="rId39"/>
-    <hyperlink ref="B42" r:id="rId40"/>
-    <hyperlink ref="B43" r:id="rId41"/>
-    <hyperlink ref="B44" r:id="rId42"/>
-    <hyperlink ref="B45" r:id="rId43"/>
-    <hyperlink ref="B46" r:id="rId44"/>
-    <hyperlink ref="B47" r:id="rId45"/>
-    <hyperlink ref="B48" r:id="rId46"/>
-    <hyperlink ref="B49" r:id="rId47"/>
-    <hyperlink ref="B50" r:id="rId48"/>
-    <hyperlink ref="B51" r:id="rId49"/>
-    <hyperlink ref="B52" r:id="rId50"/>
-    <hyperlink ref="B53" r:id="rId51"/>
-    <hyperlink ref="B54" r:id="rId52"/>
-    <hyperlink ref="B55" r:id="rId53"/>
-    <hyperlink ref="B56" r:id="rId54"/>
-    <hyperlink ref="B57" r:id="rId55"/>
-    <hyperlink ref="B58" r:id="rId56"/>
-    <hyperlink ref="B59" r:id="rId57"/>
-    <hyperlink ref="B60" r:id="rId58"/>
-    <hyperlink ref="B61" r:id="rId59"/>
-    <hyperlink ref="B62" r:id="rId60"/>
-    <hyperlink ref="B63" r:id="rId61"/>
-    <hyperlink ref="B64" r:id="rId62"/>
-    <hyperlink ref="B65" r:id="rId63"/>
-    <hyperlink ref="B66" r:id="rId64"/>
-    <hyperlink ref="B67" r:id="rId65"/>
-    <hyperlink ref="B68" r:id="rId66"/>
-    <hyperlink ref="B69" r:id="rId67"/>
-    <hyperlink ref="B70" r:id="rId68"/>
-    <hyperlink ref="B71" r:id="rId69"/>
-    <hyperlink ref="B72" r:id="rId70"/>
-    <hyperlink ref="B73" r:id="rId71"/>
-    <hyperlink ref="B74" r:id="rId72"/>
-    <hyperlink ref="B75" r:id="rId73"/>
-    <hyperlink ref="B76" r:id="rId74"/>
-    <hyperlink ref="B77" r:id="rId75"/>
-    <hyperlink ref="B78" r:id="rId76"/>
-    <hyperlink ref="B79" r:id="rId77"/>
-    <hyperlink ref="B80" r:id="rId78"/>
-    <hyperlink ref="B81" r:id="rId79"/>
-    <hyperlink ref="B82" r:id="rId80"/>
-    <hyperlink ref="B83" r:id="rId81"/>
-    <hyperlink ref="B84" r:id="rId82"/>
-    <hyperlink ref="B85" r:id="rId83"/>
-    <hyperlink ref="B86" r:id="rId84"/>
-    <hyperlink ref="B87" r:id="rId85"/>
-    <hyperlink ref="B88" r:id="rId86"/>
-    <hyperlink ref="B89" r:id="rId87"/>
-    <hyperlink ref="B90" r:id="rId88"/>
-    <hyperlink ref="B91" r:id="rId89"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B64" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B65" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B66" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B67" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B68" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B69" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B70" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B71" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B72" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B73" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B74" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B75" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B76" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B77" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B78" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B79" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B80" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B81" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B82" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B83" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B84" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B85" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B86" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B89" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B90" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B91" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B92" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B87" r:id="rId90" xr:uid="{67E85579-CD16-4DCC-A3F6-C6653F801D89}"/>
+    <hyperlink ref="B93" r:id="rId91" xr:uid="{5EF7A279-F237-497D-B6E1-08B29D7CDC08}"/>
+    <hyperlink ref="B94" r:id="rId92" xr:uid="{B7687CFA-7998-4504-9E18-9B1BA1862F1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId90"/>
+  <pageSetup orientation="portrait" r:id="rId93"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
+      <selection pane="bottomLeft" activeCell="V67" sqref="V67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5811,6 +5883,202 @@
         <v>82</v>
       </c>
     </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>434</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O65" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P65" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R65" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S65" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T65" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U65" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="V65" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="W65" s="6"/>
+      <c r="X65" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y65" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z65" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>438</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O66" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P66" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R66" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S66" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T66" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U66" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y66" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z66" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>442</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P67" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R67" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S67" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T67" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="V67" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="W67" s="6"/>
+      <c r="X67" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y67" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z67" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5818,7 +6086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5896,7 +6164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7005,10 +7273,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/Instantopen/src/main/java/com/Resources/TestData.xlsx
+++ b/Instantopen/src/main/java/com/Resources/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrown\TDECUWorkspace\TDECUProjects\InstantOpen\src\main\java\com\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECU_v4\TDECUProjects\InstantOpen\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA58748-0C56-4E76-8812-676CFE5E1CBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="516">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1476,12 +1477,114 @@
   </si>
   <si>
     <t>Colt</t>
+  </si>
+  <si>
+    <t>C23946_NonMemberUserCanAddOneJointOwnerAlongWithOneBeneficiary</t>
+  </si>
+  <si>
+    <t>9875768</t>
+  </si>
+  <si>
+    <t>9675755</t>
+  </si>
+  <si>
+    <t>SDET</t>
+  </si>
+  <si>
+    <t>8875686</t>
+  </si>
+  <si>
+    <t>C23947_VerifyTheRequiredFieldsArePopulatedForJointOwnerApplicantForm</t>
+  </si>
+  <si>
+    <t>C23948_VerifyTheRequiredFieldsArePopulatedForBeneficiaryApplicantForm</t>
+  </si>
+  <si>
+    <t>C23963_NonMemberUserCanModifyTheJointOwnerInfo</t>
+  </si>
+  <si>
+    <t>8875688</t>
+  </si>
+  <si>
+    <t>C23964_NonMemberUserCanModifyExistingBeneficiariesInfo</t>
+  </si>
+  <si>
+    <t>8875888</t>
+  </si>
+  <si>
+    <t>C23965_NonMemberUserCanDeleteExistingJointOwner</t>
+  </si>
+  <si>
+    <t>9875766</t>
+  </si>
+  <si>
+    <t>8975888</t>
+  </si>
+  <si>
+    <t>C23966_NonMemberUserCanDeleteExistingBeneficiarydetails</t>
+  </si>
+  <si>
+    <t>8675888</t>
+  </si>
+  <si>
+    <t>C24325_NonMemberUserCanSeeTheAssignedRoleToTheJointOwner</t>
+  </si>
+  <si>
+    <t>8665888</t>
+  </si>
+  <si>
+    <t>C24326_NonMemberUserCanConfirmTheAssignedRoleToTheJointOwner</t>
+  </si>
+  <si>
+    <t>8665898</t>
+  </si>
+  <si>
+    <t>C24327_NonMemberUserCanNotSeeRoleAssignIfNoProductIsSelected</t>
+  </si>
+  <si>
+    <t>8765898</t>
+  </si>
+  <si>
+    <t>8875766</t>
+  </si>
+  <si>
+    <t>C24328_NonMemberUserCanSeeRoleAssignIfClassicCheckingIsSelected</t>
+  </si>
+  <si>
+    <t>8565898</t>
+  </si>
+  <si>
+    <t>C24329_NonMemberUserCanSeeRoleAssignIfHighYieldCheckingIsSelected</t>
+  </si>
+  <si>
+    <t>8566898</t>
+  </si>
+  <si>
+    <t>C24330_NonMemberUserCanSeeTheRoleAssignPageWhileSelectingCreditCard</t>
+  </si>
+  <si>
+    <t>8566878</t>
+  </si>
+  <si>
+    <t>C24331_NonMemberUserCanSeeTheRoleAssignPageWhileSelectingVehicleLoan</t>
+  </si>
+  <si>
+    <t>8566888</t>
+  </si>
+  <si>
+    <t>887557915</t>
+  </si>
+  <si>
+    <t>888557915</t>
+  </si>
+  <si>
+    <t>888556916</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1866,11 +1969,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99:D99"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3396,118 +3499,328 @@
         <v>7</v>
       </c>
     </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>487</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>489</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>491</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>496</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>498</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>502</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>507</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>511</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11"/>
-    <hyperlink ref="B14" r:id="rId12"/>
-    <hyperlink ref="B15" r:id="rId13"/>
-    <hyperlink ref="B16" r:id="rId14"/>
-    <hyperlink ref="B17" r:id="rId15"/>
-    <hyperlink ref="B18" r:id="rId16"/>
-    <hyperlink ref="B19" r:id="rId17"/>
-    <hyperlink ref="B20" r:id="rId18"/>
-    <hyperlink ref="B21" r:id="rId19"/>
-    <hyperlink ref="B22" r:id="rId20"/>
-    <hyperlink ref="B23" r:id="rId21"/>
-    <hyperlink ref="B24" r:id="rId22"/>
-    <hyperlink ref="B25" r:id="rId23"/>
-    <hyperlink ref="B26" r:id="rId24"/>
-    <hyperlink ref="B27" r:id="rId25"/>
-    <hyperlink ref="B28" r:id="rId26"/>
-    <hyperlink ref="B29" r:id="rId27"/>
-    <hyperlink ref="B30" r:id="rId28"/>
-    <hyperlink ref="B31" r:id="rId29"/>
-    <hyperlink ref="B32" r:id="rId30"/>
-    <hyperlink ref="B33" r:id="rId31"/>
-    <hyperlink ref="B34" r:id="rId32"/>
-    <hyperlink ref="B35" r:id="rId33"/>
-    <hyperlink ref="B36" r:id="rId34"/>
-    <hyperlink ref="B37" r:id="rId35"/>
-    <hyperlink ref="B38" r:id="rId36"/>
-    <hyperlink ref="B39" r:id="rId37"/>
-    <hyperlink ref="B40" r:id="rId38"/>
-    <hyperlink ref="B41" r:id="rId39"/>
-    <hyperlink ref="B42" r:id="rId40"/>
-    <hyperlink ref="B43" r:id="rId41"/>
-    <hyperlink ref="B44" r:id="rId42"/>
-    <hyperlink ref="B45" r:id="rId43"/>
-    <hyperlink ref="B46" r:id="rId44"/>
-    <hyperlink ref="B47" r:id="rId45"/>
-    <hyperlink ref="B48" r:id="rId46"/>
-    <hyperlink ref="B49" r:id="rId47"/>
-    <hyperlink ref="B50" r:id="rId48"/>
-    <hyperlink ref="B51" r:id="rId49"/>
-    <hyperlink ref="B52" r:id="rId50"/>
-    <hyperlink ref="B53" r:id="rId51"/>
-    <hyperlink ref="B54" r:id="rId52"/>
-    <hyperlink ref="B55" r:id="rId53"/>
-    <hyperlink ref="B56" r:id="rId54"/>
-    <hyperlink ref="B57" r:id="rId55"/>
-    <hyperlink ref="B58" r:id="rId56"/>
-    <hyperlink ref="B59" r:id="rId57"/>
-    <hyperlink ref="B60" r:id="rId58"/>
-    <hyperlink ref="B61" r:id="rId59"/>
-    <hyperlink ref="B62" r:id="rId60"/>
-    <hyperlink ref="B63" r:id="rId61"/>
-    <hyperlink ref="B64" r:id="rId62"/>
-    <hyperlink ref="B65" r:id="rId63"/>
-    <hyperlink ref="B66" r:id="rId64"/>
-    <hyperlink ref="B67" r:id="rId65"/>
-    <hyperlink ref="B68" r:id="rId66"/>
-    <hyperlink ref="B69" r:id="rId67"/>
-    <hyperlink ref="B70" r:id="rId68"/>
-    <hyperlink ref="B71" r:id="rId69"/>
-    <hyperlink ref="B72" r:id="rId70"/>
-    <hyperlink ref="B73" r:id="rId71"/>
-    <hyperlink ref="B74" r:id="rId72"/>
-    <hyperlink ref="B75" r:id="rId73"/>
-    <hyperlink ref="B76" r:id="rId74"/>
-    <hyperlink ref="B77" r:id="rId75"/>
-    <hyperlink ref="B78" r:id="rId76"/>
-    <hyperlink ref="B79" r:id="rId77"/>
-    <hyperlink ref="B80" r:id="rId78"/>
-    <hyperlink ref="B81" r:id="rId79"/>
-    <hyperlink ref="B82" r:id="rId80"/>
-    <hyperlink ref="B83" r:id="rId81"/>
-    <hyperlink ref="B84" r:id="rId82"/>
-    <hyperlink ref="B85" r:id="rId83"/>
-    <hyperlink ref="B86" r:id="rId84"/>
-    <hyperlink ref="B88" r:id="rId85"/>
-    <hyperlink ref="B89" r:id="rId86"/>
-    <hyperlink ref="B90" r:id="rId87"/>
-    <hyperlink ref="B91" r:id="rId88"/>
-    <hyperlink ref="B92" r:id="rId89"/>
-    <hyperlink ref="B87" r:id="rId90"/>
-    <hyperlink ref="B93" r:id="rId91"/>
-    <hyperlink ref="B94" r:id="rId92"/>
-    <hyperlink ref="B95" r:id="rId93"/>
-    <hyperlink ref="B96" r:id="rId94"/>
-    <hyperlink ref="B97" r:id="rId95"/>
-    <hyperlink ref="B98" r:id="rId96"/>
-    <hyperlink ref="B99" r:id="rId97"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B64" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B65" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B66" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B67" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B68" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B69" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B70" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B71" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B72" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B73" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B74" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B75" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B76" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B77" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B78" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B79" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B80" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B81" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B82" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B83" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B84" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B85" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B86" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B89" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B90" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B91" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B92" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B87" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B93" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B94" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B95" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B96" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B97" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B98" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B99" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B100" r:id="rId98" xr:uid="{4732F8EA-7EAF-4938-BFC3-BB63507C20FF}"/>
+    <hyperlink ref="B101" r:id="rId99" xr:uid="{E19B1B96-6329-4396-B4E6-0869B89EB1A3}"/>
+    <hyperlink ref="B102" r:id="rId100" xr:uid="{38D0988C-2B83-4BE9-9ACC-CD054ED764B5}"/>
+    <hyperlink ref="B103" r:id="rId101" xr:uid="{78E03267-89FE-4A9C-81B2-EB3F8E9BD231}"/>
+    <hyperlink ref="B104" r:id="rId102" xr:uid="{97AE53B7-0109-4917-A2E0-ED48ADBD1B4D}"/>
+    <hyperlink ref="B105" r:id="rId103" xr:uid="{03D2BC44-5E43-45F8-A52C-D111A2F0C9E1}"/>
+    <hyperlink ref="B106" r:id="rId104" xr:uid="{227334BE-F551-4183-91A6-E893E4EFA62F}"/>
+    <hyperlink ref="B107" r:id="rId105" xr:uid="{721F7900-1D35-4402-BFAD-525F8F2A723E}"/>
+    <hyperlink ref="B108" r:id="rId106" xr:uid="{D030F014-E641-4BB7-8782-C8C62736AC69}"/>
+    <hyperlink ref="B109" r:id="rId107" xr:uid="{937F3AE1-DC9B-4755-B144-9A75FD7AD841}"/>
+    <hyperlink ref="B110" r:id="rId108" xr:uid="{D7FCB232-DD09-4129-9046-32DBF4178E43}"/>
+    <hyperlink ref="B111" r:id="rId109" xr:uid="{32D3E926-31A2-4F19-B467-D732DAD2BEE7}"/>
+    <hyperlink ref="B112" r:id="rId110" xr:uid="{7CFB43A0-44E7-4225-9995-5B18450CBB05}"/>
+    <hyperlink ref="B113" r:id="rId111" xr:uid="{5CB72AA3-0C6C-4405-BCAB-1D6A4341298B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId98"/>
+  <pageSetup orientation="portrait" r:id="rId112"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AD81"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V67" sqref="V67"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3886,6 +4199,60 @@
       <c r="A14" s="6" t="s">
         <v>92</v>
       </c>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="X14" s="7" t="s">
         <v>80</v>
       </c>
@@ -3899,6 +4266,60 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>93</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="X15" s="7" t="s">
         <v>80</v>
@@ -3962,8 +4383,62 @@
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="6" t="s">
         <v>97</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="X19" s="7" t="s">
         <v>80</v>
@@ -6059,7 +6534,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>434</v>
       </c>
@@ -6125,7 +6600,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>438</v>
       </c>
@@ -6189,7 +6664,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>442</v>
       </c>
@@ -6252,6 +6727,901 @@
         <v>85</v>
       </c>
       <c r="Z67" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O68" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P68" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R68" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S68" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T68" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U68" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="V68" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="W68" s="6"/>
+      <c r="X68" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y68" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z68" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O69" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P69" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R69" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S69" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T69" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y69" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z69" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA69" s="12"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>488</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O70" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P70" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R70" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S70" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T70" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y70" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z70" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P71" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R71" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S71" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T71" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U71" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="V71" s="2"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y71" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z71" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O72" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P72" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R72" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S72" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T72" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U72" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="V72" s="2"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y72" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z72" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>493</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P73" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R73" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S73" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T73" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U73" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="V73" s="2"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y73" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z73" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P74" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R74" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S74" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T74" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U74" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="V74" s="2"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y74" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z74" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O75" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P75" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R75" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S75" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T75" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U75" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="V75" s="2"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y75" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z75" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>500</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O76" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P76" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R76" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S76" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T76" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U76" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="V76" s="2"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y76" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z76" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O77" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P77" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R77" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S77" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T77" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U77" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="V77" s="2"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y77" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z77" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>505</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O78" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P78" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R78" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S78" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T78" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U78" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="V78" s="2"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y78" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z78" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P79" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R79" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S79" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T79" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U79" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="V79" s="2"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y79" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z79" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>509</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O80" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P80" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R80" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S80" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T80" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="V80" s="2"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y80" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z80" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O81" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P81" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R81" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S81" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T81" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U81" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="V81" s="2"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y81" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z81" s="7" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6262,7 +7632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6340,7 +7710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7449,12 +8819,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Instantopen/src/main/java/com/Resources/TestData.xlsx
+++ b/Instantopen/src/main/java/com/Resources/TestData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECU_v4\TDECUProjects\InstantOpen\src\main\java\com\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777F3A6F-0084-4A4A-BDA1-E6D854A0665E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="536">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1630,12 +1636,15 @@
   </si>
   <si>
     <t>C23865_VerifySaveContinueOnSaveProgressPage</t>
+  </si>
+  <si>
+    <t>66875678</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2013,14 +2022,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView topLeftCell="A108" workbookViewId="0">
@@ -3996,133 +4005,133 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11"/>
-    <hyperlink ref="B14" r:id="rId12"/>
-    <hyperlink ref="B15" r:id="rId13"/>
-    <hyperlink ref="B16" r:id="rId14"/>
-    <hyperlink ref="B17" r:id="rId15"/>
-    <hyperlink ref="B18" r:id="rId16"/>
-    <hyperlink ref="B19" r:id="rId17"/>
-    <hyperlink ref="B20" r:id="rId18"/>
-    <hyperlink ref="B21" r:id="rId19"/>
-    <hyperlink ref="B22" r:id="rId20"/>
-    <hyperlink ref="B23" r:id="rId21"/>
-    <hyperlink ref="B24" r:id="rId22"/>
-    <hyperlink ref="B25" r:id="rId23"/>
-    <hyperlink ref="B26" r:id="rId24"/>
-    <hyperlink ref="B27" r:id="rId25"/>
-    <hyperlink ref="B28" r:id="rId26"/>
-    <hyperlink ref="B29" r:id="rId27"/>
-    <hyperlink ref="B30" r:id="rId28"/>
-    <hyperlink ref="B31" r:id="rId29"/>
-    <hyperlink ref="B32" r:id="rId30"/>
-    <hyperlink ref="B33" r:id="rId31"/>
-    <hyperlink ref="B34" r:id="rId32"/>
-    <hyperlink ref="B35" r:id="rId33"/>
-    <hyperlink ref="B36" r:id="rId34"/>
-    <hyperlink ref="B37" r:id="rId35"/>
-    <hyperlink ref="B38" r:id="rId36"/>
-    <hyperlink ref="B39" r:id="rId37"/>
-    <hyperlink ref="B40" r:id="rId38"/>
-    <hyperlink ref="B41" r:id="rId39"/>
-    <hyperlink ref="B42" r:id="rId40"/>
-    <hyperlink ref="B43" r:id="rId41"/>
-    <hyperlink ref="B44" r:id="rId42"/>
-    <hyperlink ref="B45" r:id="rId43"/>
-    <hyperlink ref="B46" r:id="rId44"/>
-    <hyperlink ref="B47" r:id="rId45"/>
-    <hyperlink ref="B48" r:id="rId46"/>
-    <hyperlink ref="B49" r:id="rId47"/>
-    <hyperlink ref="B50" r:id="rId48"/>
-    <hyperlink ref="B51" r:id="rId49"/>
-    <hyperlink ref="B52" r:id="rId50"/>
-    <hyperlink ref="B53" r:id="rId51"/>
-    <hyperlink ref="B54" r:id="rId52"/>
-    <hyperlink ref="B55" r:id="rId53"/>
-    <hyperlink ref="B56" r:id="rId54"/>
-    <hyperlink ref="B57" r:id="rId55"/>
-    <hyperlink ref="B58" r:id="rId56"/>
-    <hyperlink ref="B59" r:id="rId57"/>
-    <hyperlink ref="B60" r:id="rId58"/>
-    <hyperlink ref="B61" r:id="rId59"/>
-    <hyperlink ref="B62" r:id="rId60"/>
-    <hyperlink ref="B63" r:id="rId61"/>
-    <hyperlink ref="B64" r:id="rId62"/>
-    <hyperlink ref="B65" r:id="rId63"/>
-    <hyperlink ref="B66" r:id="rId64"/>
-    <hyperlink ref="B67" r:id="rId65"/>
-    <hyperlink ref="B68" r:id="rId66"/>
-    <hyperlink ref="B69" r:id="rId67"/>
-    <hyperlink ref="B70" r:id="rId68"/>
-    <hyperlink ref="B71" r:id="rId69"/>
-    <hyperlink ref="B72" r:id="rId70"/>
-    <hyperlink ref="B73" r:id="rId71"/>
-    <hyperlink ref="B74" r:id="rId72"/>
-    <hyperlink ref="B75" r:id="rId73"/>
-    <hyperlink ref="B76" r:id="rId74"/>
-    <hyperlink ref="B77" r:id="rId75"/>
-    <hyperlink ref="B78" r:id="rId76"/>
-    <hyperlink ref="B79" r:id="rId77"/>
-    <hyperlink ref="B80" r:id="rId78"/>
-    <hyperlink ref="B81" r:id="rId79"/>
-    <hyperlink ref="B82" r:id="rId80"/>
-    <hyperlink ref="B83" r:id="rId81"/>
-    <hyperlink ref="B84" r:id="rId82"/>
-    <hyperlink ref="B85" r:id="rId83"/>
-    <hyperlink ref="B86" r:id="rId84"/>
-    <hyperlink ref="B88" r:id="rId85"/>
-    <hyperlink ref="B89" r:id="rId86"/>
-    <hyperlink ref="B90" r:id="rId87"/>
-    <hyperlink ref="B91" r:id="rId88"/>
-    <hyperlink ref="B92" r:id="rId89"/>
-    <hyperlink ref="B87" r:id="rId90"/>
-    <hyperlink ref="B93" r:id="rId91"/>
-    <hyperlink ref="B94" r:id="rId92"/>
-    <hyperlink ref="B95" r:id="rId93"/>
-    <hyperlink ref="B96" r:id="rId94"/>
-    <hyperlink ref="B97" r:id="rId95"/>
-    <hyperlink ref="B98" r:id="rId96"/>
-    <hyperlink ref="B99" r:id="rId97"/>
-    <hyperlink ref="B100" r:id="rId98"/>
-    <hyperlink ref="B101" r:id="rId99"/>
-    <hyperlink ref="B102" r:id="rId100"/>
-    <hyperlink ref="B103" r:id="rId101"/>
-    <hyperlink ref="B104" r:id="rId102"/>
-    <hyperlink ref="B105" r:id="rId103"/>
-    <hyperlink ref="B106" r:id="rId104"/>
-    <hyperlink ref="B107" r:id="rId105"/>
-    <hyperlink ref="B108" r:id="rId106"/>
-    <hyperlink ref="B109" r:id="rId107"/>
-    <hyperlink ref="B110" r:id="rId108"/>
-    <hyperlink ref="B111" r:id="rId109"/>
-    <hyperlink ref="B112" r:id="rId110"/>
-    <hyperlink ref="B113" r:id="rId111"/>
-    <hyperlink ref="B114" r:id="rId112"/>
-    <hyperlink ref="B115" r:id="rId113"/>
-    <hyperlink ref="B116" r:id="rId114"/>
-    <hyperlink ref="B117" r:id="rId115"/>
-    <hyperlink ref="B118" r:id="rId116"/>
-    <hyperlink ref="B119" r:id="rId117"/>
-    <hyperlink ref="B120" r:id="rId118"/>
-    <hyperlink ref="B121" r:id="rId119"/>
-    <hyperlink ref="B122" r:id="rId120"/>
-    <hyperlink ref="B123" r:id="rId121"/>
-    <hyperlink ref="B124" r:id="rId122"/>
-    <hyperlink ref="B125" r:id="rId123"/>
-    <hyperlink ref="B126" r:id="rId124"/>
-    <hyperlink ref="B127" r:id="rId125"/>
-    <hyperlink ref="B128" r:id="rId126"/>
-    <hyperlink ref="B129" r:id="rId127"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B64" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B65" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B66" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B67" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B68" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B69" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B70" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B71" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B72" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B73" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B74" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B75" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B76" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B77" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B78" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B79" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B80" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B81" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B82" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B83" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B84" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B85" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B86" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B89" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B90" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B91" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B92" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B87" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B93" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B94" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B95" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B96" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B97" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B98" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B99" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B100" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B101" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B102" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B103" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B104" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B105" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B106" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B107" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B108" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B109" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B110" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B111" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B112" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B113" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B114" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B115" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B116" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B117" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B118" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B119" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B120" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B121" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B122" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B123" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B124" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B125" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B126" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B127" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B128" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B129" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId128"/>
@@ -4130,12 +4139,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95:XFD97"/>
+      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8659,7 +8668,7 @@
         <v>29</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>525</v>
@@ -8891,7 +8900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8969,7 +8978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10078,7 +10087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Instantopen/src/main/java/com/Resources/TestData.xlsx
+++ b/Instantopen/src/main/java/com/Resources/TestData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="539">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1630,6 +1630,18 @@
   </si>
   <si>
     <t>C23865_VerifySaveContinueOnSaveProgressPage</t>
+  </si>
+  <si>
+    <t>C23906_VerifyFundTransferWithElectronicCheck</t>
+  </si>
+  <si>
+    <t>C23907_VerifyFundTransferWithDebitCard</t>
+  </si>
+  <si>
+    <t>C23908_VerifyFundTransferOptions</t>
+  </si>
+  <si>
+    <t>C23909_VerifyApplicationSubmittion</t>
   </si>
 </sst>
 </file>
@@ -2013,7 +2025,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2021,10 +2033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:XFD129"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3993,6 +4005,62 @@
         <v>7</v>
       </c>
       <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>535</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>536</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>537</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>538</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4123,19 +4191,23 @@
     <hyperlink ref="B127" r:id="rId125"/>
     <hyperlink ref="B128" r:id="rId126"/>
     <hyperlink ref="B129" r:id="rId127"/>
+    <hyperlink ref="B130" r:id="rId128"/>
+    <hyperlink ref="B131" r:id="rId129"/>
+    <hyperlink ref="B132" r:id="rId130"/>
+    <hyperlink ref="B133" r:id="rId131"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId128"/>
+  <pageSetup orientation="portrait" r:id="rId132"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD97"/>
+  <dimension ref="A1:AD101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95:XFD97"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8884,6 +8956,242 @@
         <v>82</v>
       </c>
     </row>
+    <row r="98" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O98" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P98" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q98" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R98" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S98" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T98" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X98" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y98" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z98" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O99" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P99" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q99" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R99" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S99" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T99" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X99" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y99" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z99" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O100" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P100" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q100" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R100" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S100" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T100" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X100" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y100" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z100" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O101" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P101" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q101" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R101" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S101" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T101" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X101" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y101" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z101" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8973,7 +9281,7 @@
   <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10081,7 +10389,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Instantopen/src/main/java/com/Resources/TestData.xlsx
+++ b/Instantopen/src/main/java/com/Resources/TestData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECU_v4\TDECUProjects\InstantOpen\src\main\java\com\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB99F45-4EFC-4657-8BE4-2AD62C96AAB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -1320,9 +1326,6 @@
     <t>35688741</t>
   </si>
   <si>
-    <t>42355698</t>
-  </si>
-  <si>
     <t>65211025</t>
   </si>
   <si>
@@ -1642,12 +1645,15 @@
   </si>
   <si>
     <t>C23909_VerifyApplicationSubmittion</t>
+  </si>
+  <si>
+    <t>42355451</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2025,18 +2031,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3366,7 +3372,7 @@
     </row>
     <row r="87" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>8</v>
@@ -3460,7 +3466,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>8</v>
@@ -3475,7 +3481,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>8</v>
@@ -3490,7 +3496,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>8</v>
@@ -3505,7 +3511,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>8</v>
@@ -3520,7 +3526,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>8</v>
@@ -3535,7 +3541,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>8</v>
@@ -3550,7 +3556,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>8</v>
@@ -3564,7 +3570,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>8</v>
@@ -3578,7 +3584,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>8</v>
@@ -3592,7 +3598,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>8</v>
@@ -3606,7 +3612,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>8</v>
@@ -3620,7 +3626,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>8</v>
@@ -3634,7 +3640,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>8</v>
@@ -3648,7 +3654,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>8</v>
@@ -3662,7 +3668,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>8</v>
@@ -3676,7 +3682,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>8</v>
@@ -3690,7 +3696,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>8</v>
@@ -3704,7 +3710,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>8</v>
@@ -3718,7 +3724,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>8</v>
@@ -3732,7 +3738,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>8</v>
@@ -3746,7 +3752,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>8</v>
@@ -3760,7 +3766,7 @@
     </row>
     <row r="114" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>8</v>
@@ -3776,7 +3782,7 @@
     </row>
     <row r="115" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>8</v>
@@ -3792,7 +3798,7 @@
     </row>
     <row r="116" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>8</v>
@@ -3808,7 +3814,7 @@
     </row>
     <row r="117" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>8</v>
@@ -3824,7 +3830,7 @@
     </row>
     <row r="118" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>8</v>
@@ -3840,7 +3846,7 @@
     </row>
     <row r="119" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>8</v>
@@ -3856,7 +3862,7 @@
     </row>
     <row r="120" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>8</v>
@@ -3871,7 +3877,7 @@
     </row>
     <row r="121" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>8</v>
@@ -3886,7 +3892,7 @@
     </row>
     <row r="122" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>8</v>
@@ -3901,7 +3907,7 @@
     </row>
     <row r="123" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>8</v>
@@ -3916,7 +3922,7 @@
     </row>
     <row r="124" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>8</v>
@@ -3932,7 +3938,7 @@
     </row>
     <row r="125" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>8</v>
@@ -3948,7 +3954,7 @@
     </row>
     <row r="126" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>8</v>
@@ -3963,7 +3969,7 @@
     </row>
     <row r="127" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>8</v>
@@ -3978,7 +3984,7 @@
     </row>
     <row r="128" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>8</v>
@@ -3993,7 +3999,7 @@
     </row>
     <row r="129" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>8</v>
@@ -4008,7 +4014,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>8</v>
@@ -4022,7 +4028,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>8</v>
@@ -4036,7 +4042,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>8</v>
@@ -4050,7 +4056,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>8</v>
@@ -4064,137 +4070,137 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11"/>
-    <hyperlink ref="B14" r:id="rId12"/>
-    <hyperlink ref="B15" r:id="rId13"/>
-    <hyperlink ref="B16" r:id="rId14"/>
-    <hyperlink ref="B17" r:id="rId15"/>
-    <hyperlink ref="B18" r:id="rId16"/>
-    <hyperlink ref="B19" r:id="rId17"/>
-    <hyperlink ref="B20" r:id="rId18"/>
-    <hyperlink ref="B21" r:id="rId19"/>
-    <hyperlink ref="B22" r:id="rId20"/>
-    <hyperlink ref="B23" r:id="rId21"/>
-    <hyperlink ref="B24" r:id="rId22"/>
-    <hyperlink ref="B25" r:id="rId23"/>
-    <hyperlink ref="B26" r:id="rId24"/>
-    <hyperlink ref="B27" r:id="rId25"/>
-    <hyperlink ref="B28" r:id="rId26"/>
-    <hyperlink ref="B29" r:id="rId27"/>
-    <hyperlink ref="B30" r:id="rId28"/>
-    <hyperlink ref="B31" r:id="rId29"/>
-    <hyperlink ref="B32" r:id="rId30"/>
-    <hyperlink ref="B33" r:id="rId31"/>
-    <hyperlink ref="B34" r:id="rId32"/>
-    <hyperlink ref="B35" r:id="rId33"/>
-    <hyperlink ref="B36" r:id="rId34"/>
-    <hyperlink ref="B37" r:id="rId35"/>
-    <hyperlink ref="B38" r:id="rId36"/>
-    <hyperlink ref="B39" r:id="rId37"/>
-    <hyperlink ref="B40" r:id="rId38"/>
-    <hyperlink ref="B41" r:id="rId39"/>
-    <hyperlink ref="B42" r:id="rId40"/>
-    <hyperlink ref="B43" r:id="rId41"/>
-    <hyperlink ref="B44" r:id="rId42"/>
-    <hyperlink ref="B45" r:id="rId43"/>
-    <hyperlink ref="B46" r:id="rId44"/>
-    <hyperlink ref="B47" r:id="rId45"/>
-    <hyperlink ref="B48" r:id="rId46"/>
-    <hyperlink ref="B49" r:id="rId47"/>
-    <hyperlink ref="B50" r:id="rId48"/>
-    <hyperlink ref="B51" r:id="rId49"/>
-    <hyperlink ref="B52" r:id="rId50"/>
-    <hyperlink ref="B53" r:id="rId51"/>
-    <hyperlink ref="B54" r:id="rId52"/>
-    <hyperlink ref="B55" r:id="rId53"/>
-    <hyperlink ref="B56" r:id="rId54"/>
-    <hyperlink ref="B57" r:id="rId55"/>
-    <hyperlink ref="B58" r:id="rId56"/>
-    <hyperlink ref="B59" r:id="rId57"/>
-    <hyperlink ref="B60" r:id="rId58"/>
-    <hyperlink ref="B61" r:id="rId59"/>
-    <hyperlink ref="B62" r:id="rId60"/>
-    <hyperlink ref="B63" r:id="rId61"/>
-    <hyperlink ref="B64" r:id="rId62"/>
-    <hyperlink ref="B65" r:id="rId63"/>
-    <hyperlink ref="B66" r:id="rId64"/>
-    <hyperlink ref="B67" r:id="rId65"/>
-    <hyperlink ref="B68" r:id="rId66"/>
-    <hyperlink ref="B69" r:id="rId67"/>
-    <hyperlink ref="B70" r:id="rId68"/>
-    <hyperlink ref="B71" r:id="rId69"/>
-    <hyperlink ref="B72" r:id="rId70"/>
-    <hyperlink ref="B73" r:id="rId71"/>
-    <hyperlink ref="B74" r:id="rId72"/>
-    <hyperlink ref="B75" r:id="rId73"/>
-    <hyperlink ref="B76" r:id="rId74"/>
-    <hyperlink ref="B77" r:id="rId75"/>
-    <hyperlink ref="B78" r:id="rId76"/>
-    <hyperlink ref="B79" r:id="rId77"/>
-    <hyperlink ref="B80" r:id="rId78"/>
-    <hyperlink ref="B81" r:id="rId79"/>
-    <hyperlink ref="B82" r:id="rId80"/>
-    <hyperlink ref="B83" r:id="rId81"/>
-    <hyperlink ref="B84" r:id="rId82"/>
-    <hyperlink ref="B85" r:id="rId83"/>
-    <hyperlink ref="B86" r:id="rId84"/>
-    <hyperlink ref="B88" r:id="rId85"/>
-    <hyperlink ref="B89" r:id="rId86"/>
-    <hyperlink ref="B90" r:id="rId87"/>
-    <hyperlink ref="B91" r:id="rId88"/>
-    <hyperlink ref="B92" r:id="rId89"/>
-    <hyperlink ref="B87" r:id="rId90"/>
-    <hyperlink ref="B93" r:id="rId91"/>
-    <hyperlink ref="B94" r:id="rId92"/>
-    <hyperlink ref="B95" r:id="rId93"/>
-    <hyperlink ref="B96" r:id="rId94"/>
-    <hyperlink ref="B97" r:id="rId95"/>
-    <hyperlink ref="B98" r:id="rId96"/>
-    <hyperlink ref="B99" r:id="rId97"/>
-    <hyperlink ref="B100" r:id="rId98"/>
-    <hyperlink ref="B101" r:id="rId99"/>
-    <hyperlink ref="B102" r:id="rId100"/>
-    <hyperlink ref="B103" r:id="rId101"/>
-    <hyperlink ref="B104" r:id="rId102"/>
-    <hyperlink ref="B105" r:id="rId103"/>
-    <hyperlink ref="B106" r:id="rId104"/>
-    <hyperlink ref="B107" r:id="rId105"/>
-    <hyperlink ref="B108" r:id="rId106"/>
-    <hyperlink ref="B109" r:id="rId107"/>
-    <hyperlink ref="B110" r:id="rId108"/>
-    <hyperlink ref="B111" r:id="rId109"/>
-    <hyperlink ref="B112" r:id="rId110"/>
-    <hyperlink ref="B113" r:id="rId111"/>
-    <hyperlink ref="B114" r:id="rId112"/>
-    <hyperlink ref="B115" r:id="rId113"/>
-    <hyperlink ref="B116" r:id="rId114"/>
-    <hyperlink ref="B117" r:id="rId115"/>
-    <hyperlink ref="B118" r:id="rId116"/>
-    <hyperlink ref="B119" r:id="rId117"/>
-    <hyperlink ref="B120" r:id="rId118"/>
-    <hyperlink ref="B121" r:id="rId119"/>
-    <hyperlink ref="B122" r:id="rId120"/>
-    <hyperlink ref="B123" r:id="rId121"/>
-    <hyperlink ref="B124" r:id="rId122"/>
-    <hyperlink ref="B125" r:id="rId123"/>
-    <hyperlink ref="B126" r:id="rId124"/>
-    <hyperlink ref="B127" r:id="rId125"/>
-    <hyperlink ref="B128" r:id="rId126"/>
-    <hyperlink ref="B129" r:id="rId127"/>
-    <hyperlink ref="B130" r:id="rId128"/>
-    <hyperlink ref="B131" r:id="rId129"/>
-    <hyperlink ref="B132" r:id="rId130"/>
-    <hyperlink ref="B133" r:id="rId131"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B64" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B65" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B66" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B67" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B68" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B69" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B70" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B71" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B72" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B73" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B74" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B75" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B76" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B77" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B78" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B79" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B80" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B81" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B82" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B83" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B84" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B85" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B86" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B89" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B90" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B91" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B92" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B87" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B93" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B94" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B95" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B96" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B97" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B98" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B99" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B100" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B101" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B102" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B103" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B104" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B105" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B106" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B107" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B108" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B109" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B110" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B111" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B112" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B113" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B114" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B115" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B116" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B117" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B118" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B119" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B120" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B121" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B122" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B123" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B124" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B125" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B126" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B127" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B128" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B129" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B130" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B131" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B132" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B133" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId132"/>
@@ -4202,11 +4208,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
@@ -4593,7 +4599,7 @@
         <v>29</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>105</v>
@@ -4661,7 +4667,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>105</v>
@@ -4780,7 +4786,7 @@
         <v>29</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>105</v>
@@ -6923,7 +6929,7 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>28</v>
@@ -6932,7 +6938,7 @@
         <v>29</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>46</v>
@@ -6971,10 +6977,10 @@
         <v>34</v>
       </c>
       <c r="U65" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="W65" s="6"/>
       <c r="X65" s="7" t="s">
@@ -6989,7 +6995,7 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>28</v>
@@ -6998,7 +7004,7 @@
         <v>29</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>46</v>
@@ -7037,7 +7043,7 @@
         <v>34</v>
       </c>
       <c r="U66" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="V66" s="6"/>
       <c r="W66" s="6"/>
@@ -7053,7 +7059,7 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>28</v>
@@ -7062,7 +7068,7 @@
         <v>29</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>46</v>
@@ -7101,10 +7107,10 @@
         <v>34</v>
       </c>
       <c r="U67" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="W67" s="6"/>
       <c r="X67" s="7" t="s">
@@ -7119,7 +7125,7 @@
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>28</v>
@@ -7128,7 +7134,7 @@
         <v>29</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>46</v>
@@ -7152,7 +7158,7 @@
         <v>357</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q68" s="2" t="s">
         <v>358</v>
@@ -7167,10 +7173,10 @@
         <v>34</v>
       </c>
       <c r="U68" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="V68" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="V68" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="W68" s="6"/>
       <c r="X68" s="7" t="s">
@@ -7185,7 +7191,7 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>28</v>
@@ -7194,7 +7200,7 @@
         <v>29</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>46</v>
@@ -7218,7 +7224,7 @@
         <v>357</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q69" s="2" t="s">
         <v>358</v>
@@ -7248,7 +7254,7 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>28</v>
@@ -7257,7 +7263,7 @@
         <v>29</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>46</v>
@@ -7281,7 +7287,7 @@
         <v>357</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>358</v>
@@ -7310,7 +7316,7 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>28</v>
@@ -7319,7 +7325,7 @@
         <v>29</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>46</v>
@@ -7343,7 +7349,7 @@
         <v>357</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q71" s="2" t="s">
         <v>358</v>
@@ -7358,7 +7364,7 @@
         <v>34</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="V71" s="2"/>
       <c r="W71" s="6"/>
@@ -7374,7 +7380,7 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>28</v>
@@ -7383,7 +7389,7 @@
         <v>29</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>46</v>
@@ -7407,7 +7413,7 @@
         <v>357</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q72" s="2" t="s">
         <v>358</v>
@@ -7422,7 +7428,7 @@
         <v>34</v>
       </c>
       <c r="U72" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="V72" s="2"/>
       <c r="W72" s="6"/>
@@ -7438,7 +7444,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>28</v>
@@ -7447,7 +7453,7 @@
         <v>29</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>46</v>
@@ -7471,7 +7477,7 @@
         <v>357</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q73" s="2" t="s">
         <v>358</v>
@@ -7486,7 +7492,7 @@
         <v>34</v>
       </c>
       <c r="U73" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="V73" s="2"/>
       <c r="W73" s="6"/>
@@ -7502,7 +7508,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>28</v>
@@ -7511,7 +7517,7 @@
         <v>29</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>46</v>
@@ -7535,7 +7541,7 @@
         <v>357</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q74" s="2" t="s">
         <v>358</v>
@@ -7550,7 +7556,7 @@
         <v>34</v>
       </c>
       <c r="U74" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="V74" s="2"/>
       <c r="W74" s="6"/>
@@ -7566,7 +7572,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>28</v>
@@ -7575,7 +7581,7 @@
         <v>29</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>46</v>
@@ -7599,7 +7605,7 @@
         <v>357</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q75" s="2" t="s">
         <v>358</v>
@@ -7614,7 +7620,7 @@
         <v>34</v>
       </c>
       <c r="U75" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="V75" s="2"/>
       <c r="W75" s="6"/>
@@ -7630,7 +7636,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>28</v>
@@ -7639,7 +7645,7 @@
         <v>29</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>46</v>
@@ -7663,7 +7669,7 @@
         <v>357</v>
       </c>
       <c r="P76" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q76" s="2" t="s">
         <v>358</v>
@@ -7678,7 +7684,7 @@
         <v>34</v>
       </c>
       <c r="U76" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="V76" s="2"/>
       <c r="W76" s="6"/>
@@ -7694,7 +7700,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>28</v>
@@ -7703,7 +7709,7 @@
         <v>29</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>46</v>
@@ -7727,7 +7733,7 @@
         <v>357</v>
       </c>
       <c r="P77" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q77" s="2" t="s">
         <v>358</v>
@@ -7742,7 +7748,7 @@
         <v>34</v>
       </c>
       <c r="U77" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="V77" s="2"/>
       <c r="W77" s="6"/>
@@ -7758,7 +7764,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>28</v>
@@ -7767,7 +7773,7 @@
         <v>29</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>46</v>
@@ -7791,7 +7797,7 @@
         <v>357</v>
       </c>
       <c r="P78" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q78" s="2" t="s">
         <v>358</v>
@@ -7806,7 +7812,7 @@
         <v>34</v>
       </c>
       <c r="U78" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="V78" s="2"/>
       <c r="W78" s="6"/>
@@ -7822,7 +7828,7 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>28</v>
@@ -7831,7 +7837,7 @@
         <v>29</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>46</v>
@@ -7855,7 +7861,7 @@
         <v>357</v>
       </c>
       <c r="P79" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q79" s="2" t="s">
         <v>358</v>
@@ -7870,7 +7876,7 @@
         <v>34</v>
       </c>
       <c r="U79" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="V79" s="2"/>
       <c r="W79" s="6"/>
@@ -7886,7 +7892,7 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>28</v>
@@ -7895,7 +7901,7 @@
         <v>29</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>46</v>
@@ -7919,7 +7925,7 @@
         <v>357</v>
       </c>
       <c r="P80" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>358</v>
@@ -7934,7 +7940,7 @@
         <v>34</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="V80" s="2"/>
       <c r="W80" s="6"/>
@@ -7950,7 +7956,7 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>28</v>
@@ -7959,7 +7965,7 @@
         <v>29</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>46</v>
@@ -7983,7 +7989,7 @@
         <v>357</v>
       </c>
       <c r="P81" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q81" s="2" t="s">
         <v>358</v>
@@ -7998,7 +8004,7 @@
         <v>34</v>
       </c>
       <c r="U81" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="V81" s="2"/>
       <c r="W81" s="6"/>
@@ -8014,7 +8020,7 @@
     </row>
     <row r="82" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>28</v>
@@ -8023,10 +8029,10 @@
         <v>29</v>
       </c>
       <c r="H82" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="I82" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="J82" s="6" t="s">
         <v>35</v>
@@ -8073,7 +8079,7 @@
     </row>
     <row r="83" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>28</v>
@@ -8082,10 +8088,10 @@
         <v>29</v>
       </c>
       <c r="H83" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="I83" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="J83" s="6" t="s">
         <v>35</v>
@@ -8132,7 +8138,7 @@
     </row>
     <row r="84" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>28</v>
@@ -8141,10 +8147,10 @@
         <v>29</v>
       </c>
       <c r="H84" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="I84" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="J84" s="6" t="s">
         <v>35</v>
@@ -8191,7 +8197,7 @@
     </row>
     <row r="85" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>28</v>
@@ -8200,10 +8206,10 @@
         <v>29</v>
       </c>
       <c r="H85" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="I85" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="J85" s="6" t="s">
         <v>35</v>
@@ -8250,7 +8256,7 @@
     </row>
     <row r="86" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>28</v>
@@ -8259,10 +8265,10 @@
         <v>29</v>
       </c>
       <c r="H86" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="I86" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="J86" s="6" t="s">
         <v>35</v>
@@ -8309,7 +8315,7 @@
     </row>
     <row r="87" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>28</v>
@@ -8318,10 +8324,10 @@
         <v>29</v>
       </c>
       <c r="H87" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="I87" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="J87" s="6" t="s">
         <v>35</v>
@@ -8368,7 +8374,7 @@
     </row>
     <row r="88" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>28</v>
@@ -8377,10 +8383,10 @@
         <v>29</v>
       </c>
       <c r="H88" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="I88" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="J88" s="6" t="s">
         <v>35</v>
@@ -8427,7 +8433,7 @@
     </row>
     <row r="89" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>28</v>
@@ -8436,10 +8442,10 @@
         <v>29</v>
       </c>
       <c r="H89" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="I89" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="J89" s="6" t="s">
         <v>35</v>
@@ -8486,7 +8492,7 @@
     </row>
     <row r="90" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>28</v>
@@ -8495,10 +8501,10 @@
         <v>29</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J90" s="6" t="s">
         <v>35</v>
@@ -8545,7 +8551,7 @@
     </row>
     <row r="91" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>28</v>
@@ -8554,10 +8560,10 @@
         <v>29</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J91" s="6" t="s">
         <v>35</v>
@@ -8604,7 +8610,7 @@
     </row>
     <row r="92" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>28</v>
@@ -8613,10 +8619,10 @@
         <v>29</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J92" s="6" t="s">
         <v>35</v>
@@ -8663,7 +8669,7 @@
     </row>
     <row r="93" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>28</v>
@@ -8672,10 +8678,10 @@
         <v>29</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J93" s="6" t="s">
         <v>35</v>
@@ -8722,7 +8728,7 @@
     </row>
     <row r="94" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>28</v>
@@ -8731,10 +8737,10 @@
         <v>29</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J94" s="6" t="s">
         <v>35</v>
@@ -8781,7 +8787,7 @@
     </row>
     <row r="95" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>28</v>
@@ -8790,10 +8796,10 @@
         <v>29</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J95" s="6" t="s">
         <v>35</v>
@@ -8840,7 +8846,7 @@
     </row>
     <row r="96" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>28</v>
@@ -8849,10 +8855,10 @@
         <v>29</v>
       </c>
       <c r="H96" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="I96" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="J96" s="6" t="s">
         <v>35</v>
@@ -8899,7 +8905,7 @@
     </row>
     <row r="97" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>28</v>
@@ -8908,10 +8914,10 @@
         <v>29</v>
       </c>
       <c r="H97" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="I97" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="J97" s="6" t="s">
         <v>35</v>
@@ -8958,7 +8964,7 @@
     </row>
     <row r="98" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>28</v>
@@ -8967,10 +8973,10 @@
         <v>29</v>
       </c>
       <c r="H98" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="I98" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="J98" s="6" t="s">
         <v>35</v>
@@ -9017,7 +9023,7 @@
     </row>
     <row r="99" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>28</v>
@@ -9026,10 +9032,10 @@
         <v>29</v>
       </c>
       <c r="H99" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="I99" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="J99" s="6" t="s">
         <v>35</v>
@@ -9076,7 +9082,7 @@
     </row>
     <row r="100" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>28</v>
@@ -9085,10 +9091,10 @@
         <v>29</v>
       </c>
       <c r="H100" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="I100" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="J100" s="6" t="s">
         <v>35</v>
@@ -9135,7 +9141,7 @@
     </row>
     <row r="101" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>28</v>
@@ -9144,10 +9150,10 @@
         <v>29</v>
       </c>
       <c r="H101" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="I101" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="J101" s="6" t="s">
         <v>35</v>
@@ -9199,7 +9205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9277,7 +9283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10386,11 +10392,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10607,7 +10613,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>431</v>
+        <v>538</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>403</v>
@@ -10746,7 +10752,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>422</v>
@@ -10799,7 +10805,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>426</v>
@@ -10843,13 +10849,13 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>446</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>28</v>
@@ -10858,10 +10864,10 @@
         <v>29</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>35</v>
@@ -10894,15 +10900,15 @@
         <v>391</v>
       </c>
       <c r="R7" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="S7" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B8" s="6">
         <v>500</v>
@@ -10917,10 +10923,10 @@
         <v>29</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>35</v>
@@ -10953,45 +10959,45 @@
         <v>391</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="T8" s="9" t="s">
         <v>104</v>
       </c>
       <c r="U8" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="V8" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="V8" s="9" t="s">
+      <c r="W8" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="W8" s="9" t="s">
+      <c r="X8" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="X8" s="9" t="s">
+      <c r="Y8" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>458</v>
       </c>
       <c r="Z8" s="9" t="s">
         <v>211</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>464</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>465</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>28</v>
@@ -11000,10 +11006,10 @@
         <v>29</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>35</v>
@@ -11036,21 +11042,21 @@
         <v>391</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>474</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>28</v>
@@ -11059,10 +11065,10 @@
         <v>29</v>
       </c>
       <c r="F10" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>471</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>35</v>
@@ -11095,21 +11101,21 @@
         <v>391</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>480</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>481</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>28</v>
@@ -11118,10 +11124,10 @@
         <v>29</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>35</v>
@@ -11154,22 +11160,22 @@
         <v>391</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="T11" s="9" t="s">
         <v>104</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="V11" s="6">
         <v>1000</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
